--- a/biology/Histoire de la zoologie et de la botanique/Carl_Emanuel_Burckhardt/Carl_Emanuel_Burckhardt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Emanuel_Burckhardt/Carl_Emanuel_Burckhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Emanuel Burckhardt est un géologue et un paléontologue suisse, né le 26 mars 1869 à Bâle et mort le 26 août 1935 à Mexico.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Wilhelm et Maria Caroline née Sarasin. Il étudie la botanique et la géologie à Genève, Bâle et Zurich de 1888 à 1893. Il travaille comme géologue pour le gouvernement de 1894 à 1895. Il collabore notamment avec Eduard Suess (1831-1914) et Wilhelm Heinrich Waagen (1841-1900) à Vienne et avec Karl Alfred von Zittel (1839-1904) à Munich.
 Il travaille pour l’institut géologique de La Plata en Argentine en 1896. En 1897-1898, il étudie la cordillère en Argentine et au Chili. Il retourne à Munich en 1901 où il devient assistant au Bayerische Oberbergamt. De 1904 à 1915, il géologue-chef à l’institut de géologie à Mexico.
